--- a/model/results/mix5_ggpos_h2pos/v_sec.xlsx
+++ b/model/results/mix5_ggpos_h2pos/v_sec.xlsx
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1547,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.611750621890547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3482334162520729</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0.5223501243781093</v>
       </c>
     </row>
     <row r="7">
@@ -1855,7 +1855,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01073809523809526</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D20" t="n">
         <v>1.603197619047619</v>
@@ -2009,7 +2009,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01073809523809526</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D27" t="n">
         <v>1.603197619047619</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -2031,16 +2031,16 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01073809523809526</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D28" t="n">
-        <v>1.603197619047621</v>
+        <v>1.603197619047619</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3511357142857143</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="29">
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777821</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
-        <v>1.566959084666728e-14</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999978</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -2517,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.611750621890547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3482334162520729</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0.5223501243781093</v>
       </c>
     </row>
     <row r="7">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="16">
@@ -2781,7 +2781,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D18" t="n">
         <v>1.603197619047619</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.351135714285714</v>
       </c>
     </row>
     <row r="19">
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="20">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="25">
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -3001,7 +3001,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01073809523809527</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D28" t="n">
         <v>1.603197619047619</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3511357142857143</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="29">
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="30">
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="32">
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="33">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000023</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333305</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111182</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>2.559690927126394e-14</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666609</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3487,16 +3487,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.611750621890547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3482334162520729</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0.5223501243781093</v>
       </c>
     </row>
     <row r="7">
@@ -3751,7 +3751,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D18" t="n">
         <v>1.603197619047619</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.351135714285714</v>
       </c>
     </row>
     <row r="19">
@@ -3795,7 +3795,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01073809523809524</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D20" t="n">
         <v>1.603197619047619</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="21">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="26">
@@ -3952,13 +3952,13 @@
         <v>0.01073809523809523</v>
       </c>
       <c r="D27" t="n">
-        <v>1.603197619047621</v>
+        <v>1.603197619047619</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -3971,16 +3971,16 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01073809523809527</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D28" t="n">
-        <v>1.603197619047621</v>
+        <v>1.603197619047619</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3511357142857143</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="29">
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="33">
@@ -4394,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777821</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
-        <v>1.566959084666728e-14</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999996</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -4435,16 +4435,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4460,13 +4460,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4721,7 +4721,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D18" t="n">
         <v>1.603197619047619</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.351135714285714</v>
       </c>
     </row>
     <row r="19">
@@ -4768,7 +4768,7 @@
         <v>0.01073809523809523</v>
       </c>
       <c r="D20" t="n">
-        <v>1.603197619047621</v>
+        <v>1.603197619047619</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01073809523809524</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D27" t="n">
         <v>1.603197619047619</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -4941,7 +4941,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01073809523809527</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D28" t="n">
         <v>1.603197619047619</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3511357142857143</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="29">
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5386,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777821</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
-        <v>1.566959084666728e-14</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999996</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -5405,16 +5405,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5430,13 +5430,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5537,7 +5537,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D11" t="n">
         <v>1.603197619047619</v>
@@ -5559,7 +5559,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D12" t="n">
         <v>1.603197619047619</v>
@@ -5581,7 +5581,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D13" t="n">
         <v>1.603197619047619</v>
@@ -5625,7 +5625,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D15" t="n">
         <v>1.603197619047619</v>
@@ -5735,7 +5735,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01073809523809524</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D20" t="n">
         <v>1.603197619047619</v>
@@ -5757,7 +5757,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D21" t="n">
         <v>1.603197619047619</v>
@@ -5823,7 +5823,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D24" t="n">
         <v>1.603197619047619</v>
@@ -5889,7 +5889,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01073809523809524</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D27" t="n">
         <v>1.603197619047619</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -6312,13 +6312,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -6334,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6356,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -6378,13 +6378,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -6400,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6507,7 +6507,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D11" t="n">
         <v>1.603197619047619</v>
@@ -6529,7 +6529,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D12" t="n">
         <v>1.603197619047619</v>
@@ -6551,7 +6551,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D13" t="n">
         <v>1.603197619047619</v>
@@ -6595,7 +6595,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D15" t="n">
         <v>1.603197619047619</v>
@@ -6705,7 +6705,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01073809523809526</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D20" t="n">
         <v>1.603197619047619</v>
@@ -6727,7 +6727,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D21" t="n">
         <v>1.603197619047619</v>
@@ -6793,7 +6793,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D24" t="n">
         <v>1.603197619047619</v>
@@ -6859,7 +6859,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01073809523809526</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D27" t="n">
         <v>1.603197619047619</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -6881,7 +6881,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01073809523809526</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D28" t="n">
         <v>1.603197619047619</v>
@@ -7282,13 +7282,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -7304,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.07499999999999</v>
       </c>
     </row>
     <row r="4">
@@ -7326,13 +7326,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -7348,13 +7348,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="6">
@@ -7370,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7477,7 +7477,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D11" t="n">
         <v>1.603197619047619</v>
@@ -7499,7 +7499,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D12" t="n">
         <v>1.603197619047619</v>
@@ -7521,7 +7521,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D13" t="n">
         <v>1.603197619047619</v>
@@ -7565,7 +7565,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D15" t="n">
         <v>1.603197619047619</v>
@@ -7675,7 +7675,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01073809523809526</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D20" t="n">
         <v>1.603197619047619</v>
@@ -7697,7 +7697,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D21" t="n">
         <v>1.603197619047619</v>
@@ -7763,7 +7763,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D24" t="n">
         <v>1.603197619047619</v>
@@ -7829,7 +7829,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01073809523809526</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D27" t="n">
         <v>1.603197619047619</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -8252,13 +8252,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.074999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -8274,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -8296,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -8318,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="6">
@@ -8340,13 +8340,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222221</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8447,7 +8447,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D11" t="n">
         <v>1.603197619047619</v>
@@ -8469,7 +8469,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D12" t="n">
         <v>1.603197619047619</v>
@@ -8491,7 +8491,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D13" t="n">
         <v>1.603197619047619</v>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="14">
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="15">
@@ -8535,7 +8535,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D15" t="n">
         <v>1.603197619047619</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="16">
@@ -8588,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="18">
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="20">
@@ -8645,7 +8645,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01073809523809524</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D20" t="n">
         <v>1.603197619047619</v>
@@ -8667,7 +8667,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D21" t="n">
         <v>1.603197619047619</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="22">
@@ -8733,7 +8733,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D24" t="n">
         <v>1.603197619047619</v>
@@ -8799,7 +8799,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01073809523809524</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D27" t="n">
         <v>1.603197619047619</v>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="30">
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="31">
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3511357142857146</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="33">
@@ -9222,13 +9222,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -9244,13 +9244,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -9266,13 +9266,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -9288,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="6">
@@ -9310,13 +9310,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222221</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -9417,7 +9417,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D11" t="n">
         <v>1.603197619047619</v>
@@ -9439,7 +9439,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D12" t="n">
         <v>1.603197619047619</v>
@@ -9461,7 +9461,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D13" t="n">
         <v>1.603197619047619</v>
@@ -9505,7 +9505,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D15" t="n">
         <v>1.603197619047619</v>
@@ -9615,7 +9615,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01073809523809524</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D20" t="n">
         <v>1.603197619047619</v>
@@ -9637,7 +9637,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D21" t="n">
         <v>1.603197619047619</v>
@@ -9703,7 +9703,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D24" t="n">
         <v>1.603197619047619</v>
@@ -9766,19 +9766,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.310047619047617</v>
+        <v>1.310047619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01073809523809455</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D27" t="n">
-        <v>1.603197619047621</v>
+        <v>1.603197619047619</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857101</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -10192,13 +10192,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.074999999999959</v>
       </c>
     </row>
     <row r="3">
@@ -10214,13 +10214,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999959</v>
       </c>
     </row>
     <row r="4">
@@ -10236,13 +10236,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -10258,13 +10258,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -10280,13 +10280,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222221</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -10387,7 +10387,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D11" t="n">
         <v>1.603197619047619</v>
@@ -10409,7 +10409,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D12" t="n">
         <v>1.603197619047619</v>
@@ -10431,7 +10431,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D13" t="n">
         <v>1.603197619047619</v>
@@ -10475,7 +10475,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D15" t="n">
         <v>1.603197619047619</v>
@@ -10582,19 +10582,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.310047619047617</v>
+        <v>1.310047619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01073809523809455</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D20" t="n">
-        <v>1.603197619047621</v>
+        <v>1.603197619047619</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3511357142857101</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="21">
@@ -10607,7 +10607,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D21" t="n">
         <v>1.603197619047619</v>
@@ -10673,7 +10673,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D24" t="n">
         <v>1.603197619047619</v>
@@ -10739,7 +10739,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01073809523809524</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D27" t="n">
         <v>1.603197619047619</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -11247,16 +11247,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="7">
@@ -12132,13 +12132,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777692</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999946</v>
       </c>
     </row>
     <row r="3">
@@ -12154,13 +12154,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.452777777777771</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.07499999999995</v>
       </c>
     </row>
     <row r="4">
@@ -12176,13 +12176,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -12198,13 +12198,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="6">
@@ -12220,13 +12220,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -12327,7 +12327,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D11" t="n">
         <v>1.603197619047619</v>
@@ -12349,7 +12349,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D12" t="n">
         <v>1.603197619047619</v>
@@ -12371,7 +12371,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D13" t="n">
         <v>1.603197619047619</v>
@@ -12415,7 +12415,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D15" t="n">
         <v>1.603197619047619</v>
@@ -12522,19 +12522,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.310047619047617</v>
+        <v>1.310047619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01073809523809455</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D20" t="n">
-        <v>1.603197619047621</v>
+        <v>1.603197619047619</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3511357142857101</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="21">
@@ -12547,7 +12547,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D21" t="n">
         <v>1.603197619047619</v>
@@ -12613,7 +12613,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01073809523809523</v>
+        <v>0.01073809523809524</v>
       </c>
       <c r="D24" t="n">
         <v>1.603197619047619</v>
@@ -12676,19 +12676,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.310047619047617</v>
+        <v>1.310047619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01073809523809455</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D27" t="n">
-        <v>1.603197619047621</v>
+        <v>1.603197619047619</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857101</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -12698,19 +12698,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.310047619047617</v>
+        <v>1.310047619047619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01073809523809455</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D28" t="n">
-        <v>1.603197619047621</v>
+        <v>1.603197619047619</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3511357142857101</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="29">
@@ -13187,16 +13187,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="7">
@@ -14157,16 +14157,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="7">
@@ -14440,19 +14440,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.503333333333333</v>
+        <v>1.503333333333355</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1503333333333333</v>
+        <v>0.1503333333333355</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9771666666666666</v>
+        <v>0.9771666666666805</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.1275</v>
+        <v>1.127500000000016</v>
       </c>
     </row>
     <row r="20">
@@ -15061,16 +15061,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.716666666666666</v>
+        <v>2.958910886962526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3945214515950035</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5917821773925053</v>
       </c>
     </row>
     <row r="4">
@@ -15083,16 +15083,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.037861121673005</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4050481495564008</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.607572224334601</v>
+        <v>0.6791666666666665</v>
       </c>
     </row>
     <row r="5">
@@ -15127,16 +15127,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.395833333333333</v>
+        <v>2.611750621890547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.3482334162520729</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6791666666666666</v>
+        <v>0.5223501243781093</v>
       </c>
     </row>
     <row r="7">
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="11">
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="17">
@@ -15378,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="18">
@@ -15488,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="23">
@@ -15554,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="26">
@@ -15686,7 +15686,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="32">
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="33">
@@ -15740,19 +15740,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -15762,19 +15762,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -15784,19 +15784,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -15806,19 +15806,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="38">
@@ -15850,19 +15850,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -15894,19 +15894,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
@@ -15916,19 +15916,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -15938,19 +15938,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -16031,16 +16031,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.716666666666666</v>
+        <v>2.958910886962526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3945214515950035</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5917821773925053</v>
       </c>
     </row>
     <row r="4">
@@ -16053,16 +16053,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.037861121673005</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4050481495564008</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.607572224334601</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -16097,16 +16097,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.611750621890547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.3482334162520729</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0.5223501243781093</v>
       </c>
     </row>
     <row r="7">
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="11">
@@ -16282,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="15">
@@ -16326,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="17">
@@ -16348,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="18">
@@ -16370,7 +16370,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="19">
@@ -16458,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="23">
@@ -16480,7 +16480,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="24">
@@ -16524,7 +16524,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="26">
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="30">
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="31">
@@ -16656,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="32">
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="33">
@@ -16710,19 +16710,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -16732,19 +16732,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -16754,19 +16754,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -16776,19 +16776,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="38">
@@ -16820,19 +16820,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -16864,19 +16864,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
@@ -16886,19 +16886,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -16908,19 +16908,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -16979,16 +16979,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.079158384030418</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4105544512040558</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6158316768060835</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="3">
@@ -17001,16 +17001,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.395833333333334</v>
+        <v>2.958910886962526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3945214515950035</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6791666666666666</v>
+        <v>0.5917821773925053</v>
       </c>
     </row>
     <row r="4">
@@ -17026,13 +17026,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -17067,16 +17067,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.611750621890547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.3482334162520729</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0.5223501243781093</v>
       </c>
     </row>
     <row r="7">
@@ -17164,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="11">
@@ -17252,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="15">
@@ -17296,7 +17296,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="17">
@@ -17318,7 +17318,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="18">
@@ -17340,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="19">
@@ -17362,7 +17362,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="20">
@@ -17428,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="23">
@@ -17450,7 +17450,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="24">
@@ -17494,7 +17494,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="26">
@@ -17582,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="30">
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="31">
@@ -17626,7 +17626,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="32">
@@ -17648,7 +17648,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999996</v>
       </c>
     </row>
     <row r="33">
@@ -17680,19 +17680,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -17702,19 +17702,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -17724,19 +17724,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -17746,19 +17746,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="38">
@@ -17790,19 +17790,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -17834,19 +17834,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
@@ -17856,19 +17856,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -17878,19 +17878,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -17949,16 +17949,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6791666666666665</v>
       </c>
     </row>
     <row r="3">
@@ -17971,16 +17971,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.395833333333334</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6791666666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -18018,7 +18018,7 @@
         <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4256111111111112</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -18037,16 +18037,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.611750621890547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3482334162520729</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0.5223501243781093</v>
       </c>
     </row>
     <row r="7">
@@ -18508,7 +18508,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -18521,7 +18521,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01073809523809527</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D28" t="n">
         <v>1.603197619047619</v>
@@ -18530,7 +18530,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3511357142857143</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="29">
@@ -18650,19 +18650,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -18672,19 +18672,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -18694,19 +18694,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -18716,19 +18716,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="38">
@@ -18760,19 +18760,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -18804,19 +18804,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
@@ -18826,19 +18826,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -18848,19 +18848,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -18985,10 +18985,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333333</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4256111111111112</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -19007,16 +19007,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.611750621890547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3482334162520729</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0.5223501243781093</v>
       </c>
     </row>
     <row r="7">
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3511357142857141</v>
+        <v>0.3511357142857142</v>
       </c>
     </row>
     <row r="28">
@@ -19491,7 +19491,7 @@
         <v>1.310047619047619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01073809523809527</v>
+        <v>0.01073809523809523</v>
       </c>
       <c r="D28" t="n">
         <v>1.603197619047619</v>
@@ -19500,7 +19500,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3511357142857143</v>
+        <v>0.3511357142857141</v>
       </c>
     </row>
     <row r="29">
@@ -19620,19 +19620,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -19642,19 +19642,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -19664,19 +19664,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -19686,19 +19686,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="38">
@@ -19730,19 +19730,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -19774,19 +19774,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
@@ -19796,19 +19796,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -19818,19 +19818,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
